--- a/Income/APH_inc.xlsx
+++ b/Income/APH_inc.xlsx
@@ -1984,13 +1984,13 @@
         <v>0.3097</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3092</v>
+        <v>0.3091</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0.3135</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3181</v>
+        <v>0.318</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3196</v>
@@ -2368,7 +2368,7 @@
         <v>0.1357</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.139</v>
+        <v>0.1389</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.1404</v>
@@ -2864,19 +2864,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2.1078</v>
+        <v>2.1077</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1.9729</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.913</v>
+        <v>1.9131</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1.807</v>
+        <v>1.8071</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1.8497</v>
+        <v>1.8498</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1.8903</v>
@@ -2994,16 +2994,16 @@
         <v>2.1812</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>2.0357</v>
+        <v>2.0356</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.9724</v>
+        <v>1.9723</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1.8635</v>
+        <v>1.8634</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1.9125</v>
+        <v>1.9124</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1.9563</v>
@@ -3121,16 +3121,16 @@
         <v>2.1812</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2.0357</v>
+        <v>2.0356</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1.9724</v>
+        <v>1.9723</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1.8635</v>
+        <v>1.8634</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1.9125</v>
+        <v>1.9124</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1.9563</v>
@@ -3505,13 +3505,13 @@
         <v>0.2277</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2253</v>
+        <v>0.2252</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2235</v>
+        <v>0.2234</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2287</v>
+        <v>0.2286</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.2348</v>
